--- a/Desafio Bootcamp.xlsx
+++ b/Desafio Bootcamp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Isabella\Excel-estudos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB26633F-6B08-466D-BE94-10109679A9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B3F203-1D66-45F6-A8C0-66186734D2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="8" xr2:uid="{5C6C7EBC-7E40-4D31-98FB-166F7204FFD3}"/>
   </bookViews>
@@ -238,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -745,6 +745,17 @@
       <top style="thin">
         <color theme="2"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -756,160 +767,51 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="8" fontId="4" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1"/>
@@ -917,7 +819,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -925,19 +827,144 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="6"/>
+      <alignment horizontal="right" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="6"/>
+      <alignment horizontal="right" indent="7"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -979,37 +1006,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -1031,6 +1028,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9841-44D0-9070-93BD4AEC38D9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1046,6 +1048,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9841-44D0-9070-93BD4AEC38D9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1061,6 +1068,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9841-44D0-9070-93BD4AEC38D9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1076,6 +1088,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9841-44D0-9070-93BD4AEC38D9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1091,6 +1108,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-9841-44D0-9070-93BD4AEC38D9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1106,6 +1128,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-9841-44D0-9070-93BD4AEC38D9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1817,8 +1844,8 @@
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1922</xdr:rowOff>
     </xdr:to>
@@ -1849,7 +1876,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="177800" y="171450"/>
-          <a:ext cx="4102100" cy="1119522"/>
+          <a:ext cx="4013200" cy="1119522"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2194,19 +2221,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB26A55-C963-4D6C-A5DD-DC742FA7C2B0}">
-  <dimension ref="A8:XFD38"/>
+  <dimension ref="A8:XFC38"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="7" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="16.453125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="8" width="16.453125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="40.08984375" hidden="1" customWidth="1"/>
     <col min="13" max="16381" width="8.7265625" hidden="1"/>
     <col min="16382" max="16382" width="30.36328125" hidden="1" customWidth="1"/>
@@ -2215,160 +2243,160 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="2:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="H9" s="35"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8">
+      <c r="C10" s="47"/>
+      <c r="D10" s="73">
         <v>5000</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="9">
+      <c r="C11" s="47"/>
+      <c r="D11" s="74">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12">
+      <c r="C12" s="31"/>
+      <c r="D12" s="75">
         <f>D10*30%</f>
         <v>1500</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18">
+      <c r="C15" s="36"/>
+      <c r="D15" s="69">
         <v>500</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21">
+      <c r="C16" s="38"/>
+      <c r="D16" s="70">
         <v>5</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24">
+      <c r="C17" s="38"/>
+      <c r="D17" s="71">
         <v>1.0789999999999999E-2</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49">
+      <c r="C18" s="40"/>
+      <c r="D18" s="72">
         <f>FV(taxa_mensal,período*12,aporte*-1)</f>
         <v>41888.456999243819</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52">
+      <c r="C19" s="42"/>
+      <c r="D19" s="15">
         <f>patrimonio*rendimento_carteira</f>
         <v>251.33074199546292</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="25" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2376,256 +2404,260 @@
       <c r="A22" s="1">
         <v>2</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="27">
+      <c r="C22" s="63">
         <f>FV(taxa_mensal,A22*12,aporte*-1)</f>
         <v>13613.813648822608</v>
       </c>
-      <c r="D22" s="28">
+      <c r="D22" s="64">
         <f>C22*rendimento_carteira</f>
         <v>81.682881892935654</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>5</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="65">
         <f>FV(taxa_mensal,A23*12,aporte*-1)</f>
         <v>41888.456999243819</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="66">
         <f>C23*rendimento_carteira</f>
         <v>251.33074199546292</v>
       </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>10</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="65">
         <f>FV(taxa_mensal,A24*12,aporte*-1)</f>
         <v>121642.1062650861</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="66">
         <f>C24*rendimento_carteira</f>
         <v>729.85263759051657</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="43"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="65">
         <f>FV(taxa_mensal,A25*12,aporte*-1)</f>
         <v>562599.20004854025</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="66">
         <f>C25*rendimento_carteira</f>
         <v>3375.5952002912418</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>30</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="67">
         <f>FV(taxa_mensal,A26*12,aporte*-1)</f>
         <v>2161084.8275023573</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="68">
         <f>C26*rendimento_carteira</f>
         <v>12966.508965014144</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="45" t="s">
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="44" t="s">
+      <c r="C28" s="49"/>
+      <c r="D28" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="5" t="s">
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="46">
+      <c r="C29" s="51"/>
+      <c r="D29" s="62">
         <f>aporte</f>
         <v>500</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="70" t="s">
+      <c r="D31" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="66">
+      <c r="C32" s="27">
         <f>VLOOKUP($D$28&amp;"-"&amp;B32,Apoio!A2:D20,4,FALSE)</f>
         <v>0.5</v>
       </c>
-      <c r="D32" s="72">
+      <c r="D32" s="57">
         <f>$D$29*C32</f>
         <v>250</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B33" s="73" t="s">
+      <c r="B33" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="28">
         <f>VLOOKUP($D$28&amp;"-"&amp;B33,Apoio!A3:D21,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="58">
         <f t="shared" ref="D33:D37" si="0">$D$29*C33</f>
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B34" s="73" t="s">
+      <c r="B34" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="67">
+      <c r="C34" s="28">
         <f>VLOOKUP($D$28&amp;"-"&amp;B34,Apoio!A4:D22,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="58">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="67">
+      <c r="C35" s="28">
         <f>VLOOKUP($D$28&amp;"-"&amp;B35,Apoio!A5:D23,4,FALSE)</f>
         <v>0.05</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="58">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="28">
         <f>VLOOKUP($D$28&amp;"-"&amp;B36,Apoio!A6:D24,4,FALSE)</f>
         <v>0.2</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D36" s="58">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="73" t="s">
+      <c r="B37" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="28">
         <f>VLOOKUP($D$28&amp;"-"&amp;B37,Apoio!A7:D25,4,FALSE)</f>
         <v>0.1</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="58">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="75">
+      <c r="C38" s="61"/>
+      <c r="D38" s="59">
         <f>SUM(D32:D37)</f>
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B38:C38"/>
@@ -2636,9 +2668,6 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28" xr:uid="{12AFBDCE-EA2F-40DD-A209-6A3E695C7DC7}">
@@ -2682,125 +2711,125 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="53" t="str">
+      <c r="A3" s="16" t="str">
         <f>B3&amp;"-"&amp;C3</f>
         <v>Conservador-Papel</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="63">
+      <c r="D3" s="24">
         <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="str">
+      <c r="A4" t="str">
         <f t="shared" ref="A4:A20" si="0">B4&amp;"-"&amp;C4</f>
         <v>Conservador-Tijolo</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="25">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="55" t="str">
+      <c r="A5" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Híbridos</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="25">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="str">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-FOFs</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="64">
+      <c r="D6" s="25">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="str">
+      <c r="A7" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Desenvolvimento</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="64">
+      <c r="D7" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="57" t="str">
+      <c r="A8" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Conservador-Hotelarias</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="53" t="str">
+      <c r="A9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Papel</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="20">
         <v>0.32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="55" t="str">
+      <c r="A10" t="str">
         <f>B10&amp;"-"&amp;C10</f>
         <v>Moderado-Tijolo</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="21">
         <v>0.35</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
       <c r="G10" t="str">
@@ -2809,62 +2838,62 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="55" t="str">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Híbridos</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="60">
+      <c r="D11" s="21">
         <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="55" t="str">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-FOFs</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="21">
         <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="55" t="str">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Desenvolvimento</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="21">
         <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="57" t="str">
+      <c r="A14" s="18" t="str">
         <f t="shared" si="0"/>
         <v>Moderado-Hotelarias</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="61">
+      <c r="D14" s="22">
         <v>0.1</v>
       </c>
     </row>
@@ -2876,10 +2905,10 @@
       <c r="B15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="62">
+      <c r="D15" s="23">
         <v>0.5</v>
       </c>
     </row>
@@ -2891,10 +2920,10 @@
       <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="62">
+      <c r="D16" s="23">
         <v>0.1</v>
       </c>
     </row>
@@ -2906,10 +2935,10 @@
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="62">
+      <c r="D17" s="23">
         <v>0.05</v>
       </c>
     </row>
@@ -2921,10 +2950,10 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D18" s="23">
         <v>0.05</v>
       </c>
     </row>
@@ -2936,10 +2965,10 @@
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="62">
+      <c r="D19" s="23">
         <v>0.2</v>
       </c>
     </row>
@@ -2951,10 +2980,10 @@
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D20" s="23">
         <v>0.1</v>
       </c>
     </row>
